--- a/Data/aearep-1697/candidatepackages.xlsx
+++ b/Data/aearep-1697/candidatepackages.xlsx
@@ -14,32 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>ftools</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>nrow</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>cluster2</t>
   </si>
   <si>
@@ -55,54 +43,45 @@
     <t>running</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
     <t>effects</t>
   </si>
   <si>
+    <t>next</t>
+  </si>
+  <si>
     <t>roman</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
+    <t>try</t>
   </si>
   <si>
     <t>mail</t>
   </si>
   <si>
+    <t>sto</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>sto</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -115,33 +94,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1697</t>
-  </si>
-  <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1697/129821</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1697/129821/do</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1697/129821/do/archive</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1697/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>01-01-genData-Initial.do</t>
   </si>
   <si>
@@ -206,9 +167,6 @@
   </si>
   <si>
     <t>02-meta-v003-21 Jan 2021.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -252,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -260,13 +218,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -274,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -286,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -298,7 +256,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -310,10 +268,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.12727272510528564</v>
       </c>
       <c r="D5"/>
     </row>
@@ -322,10 +280,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D6"/>
     </row>
@@ -334,10 +292,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -346,10 +304,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>279</v>
+        <v>632</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D8"/>
     </row>
@@ -358,10 +316,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>366</v>
+        <v>884</v>
       </c>
       <c r="C9">
-        <v>0.12135278433561325</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D9"/>
     </row>
@@ -370,10 +328,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>565</v>
+        <v>955</v>
       </c>
       <c r="C10">
-        <v>0.18733422458171844</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D10"/>
     </row>
@@ -382,10 +340,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>566</v>
+        <v>1125</v>
       </c>
       <c r="C11">
-        <v>0.18766577541828156</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D11"/>
     </row>
@@ -394,10 +352,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>606</v>
+        <v>1306</v>
       </c>
       <c r="C12">
-        <v>0.20092837512493134</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D12"/>
     </row>
@@ -406,10 +364,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>797</v>
+        <v>1414</v>
       </c>
       <c r="C13">
-        <v>0.2642572820186615</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D13"/>
     </row>
@@ -418,10 +376,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>1428</v>
       </c>
       <c r="C14">
-        <v>0.32659152150154114</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D14"/>
     </row>
@@ -430,10 +388,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C15">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D15"/>
     </row>
@@ -442,10 +400,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>1880</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D16"/>
     </row>
@@ -454,10 +412,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1194</v>
+        <v>1937</v>
       </c>
       <c r="C17">
-        <v>0.39588859677314758</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D17"/>
     </row>
@@ -466,10 +424,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1423</v>
+        <v>2030</v>
       </c>
       <c r="C18">
-        <v>0.47181698679924011</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D18"/>
     </row>
@@ -478,10 +436,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1472</v>
+        <v>2057</v>
       </c>
       <c r="C19">
-        <v>0.48806366324424744</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D19"/>
     </row>
@@ -490,10 +448,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1553</v>
+        <v>2074</v>
       </c>
       <c r="C20">
-        <v>0.51492041349411011</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D20"/>
     </row>
@@ -502,10 +460,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1660</v>
+        <v>2785</v>
       </c>
       <c r="C21">
-        <v>0.55039787292480469</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D21"/>
     </row>
@@ -514,96 +472,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1745</v>
+        <v>2806</v>
       </c>
       <c r="C22">
-        <v>0.57858091592788696</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1798</v>
-      </c>
-      <c r="C23">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1817</v>
-      </c>
-      <c r="C24">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1835</v>
-      </c>
-      <c r="C25">
-        <v>0.60842174291610718</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1859</v>
-      </c>
-      <c r="C26">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>2239</v>
-      </c>
-      <c r="C27">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2367</v>
-      </c>
-      <c r="C28">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2714</v>
-      </c>
-      <c r="C29">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D29"/>
     </row>
   </sheetData>
 </worksheet>
@@ -611,223 +485,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
